--- a/Data/2022 Candidates File/party_ind_data.xlsx
+++ b/Data/2022 Candidates File/party_ind_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onest\OneDrive\Desktop\2022 Election Model\Data\2022 Candidates File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D9F32C-6B2E-4679-A181-00BB91D1F5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF62C8A-944A-4DEB-94B1-39726E1C698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="290" yWindow="4950" windowWidth="16920" windowHeight="10450" xr2:uid="{EBDE48A5-2C6B-4379-BD39-1564C1B4D6E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="58">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,69 @@
   </si>
   <si>
     <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -495,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84464BEB-B617-4CE3-ACE5-0300B2F036F6}">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C244" sqref="C244"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6822,6 +6885,4998 @@
         <v>0</v>
       </c>
     </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>2022</v>
+      </c>
+      <c r="B244" t="s">
+        <v>37</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>2022</v>
+      </c>
+      <c r="B245" t="s">
+        <v>37</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>2022</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>2022</v>
+      </c>
+      <c r="B247" t="s">
+        <v>37</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>2022</v>
+      </c>
+      <c r="B248" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>2022</v>
+      </c>
+      <c r="B249" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>2022</v>
+      </c>
+      <c r="B250" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>2022</v>
+      </c>
+      <c r="B251" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251">
+        <v>8</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>2022</v>
+      </c>
+      <c r="B252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252">
+        <v>9</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>2022</v>
+      </c>
+      <c r="B253" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2022</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254">
+        <v>11</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>2022</v>
+      </c>
+      <c r="B255" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255">
+        <v>12</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2022</v>
+      </c>
+      <c r="B256" t="s">
+        <v>38</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>2022</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2022</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2022</v>
+      </c>
+      <c r="B259" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2022</v>
+      </c>
+      <c r="B260" t="s">
+        <v>39</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2022</v>
+      </c>
+      <c r="B261" t="s">
+        <v>39</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2022</v>
+      </c>
+      <c r="B262" t="s">
+        <v>39</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>2022</v>
+      </c>
+      <c r="B263" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>2022</v>
+      </c>
+      <c r="B264" t="s">
+        <v>39</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>2022</v>
+      </c>
+      <c r="B265" t="s">
+        <v>39</v>
+      </c>
+      <c r="C265">
+        <v>7</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2022</v>
+      </c>
+      <c r="B266" t="s">
+        <v>39</v>
+      </c>
+      <c r="C266">
+        <v>8</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>2022</v>
+      </c>
+      <c r="B267" t="s">
+        <v>39</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>2022</v>
+      </c>
+      <c r="B268" t="s">
+        <v>39</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>2022</v>
+      </c>
+      <c r="B269" t="s">
+        <v>39</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>2022</v>
+      </c>
+      <c r="B270" t="s">
+        <v>39</v>
+      </c>
+      <c r="C270">
+        <v>12</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2022</v>
+      </c>
+      <c r="B271" t="s">
+        <v>39</v>
+      </c>
+      <c r="C271">
+        <v>13</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>2022</v>
+      </c>
+      <c r="B272" t="s">
+        <v>39</v>
+      </c>
+      <c r="C272">
+        <v>14</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>2022</v>
+      </c>
+      <c r="B273" t="s">
+        <v>39</v>
+      </c>
+      <c r="C273">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274">
+        <v>16</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="s">
+        <v>39</v>
+      </c>
+      <c r="C275">
+        <v>17</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>2022</v>
+      </c>
+      <c r="B276" t="s">
+        <v>39</v>
+      </c>
+      <c r="C276">
+        <v>18</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277">
+        <v>19</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278">
+        <v>20</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279">
+        <v>21</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>2022</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280">
+        <v>22</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>2022</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281">
+        <v>23</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>2022</v>
+      </c>
+      <c r="B282" t="s">
+        <v>39</v>
+      </c>
+      <c r="C282">
+        <v>24</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2022</v>
+      </c>
+      <c r="B283" t="s">
+        <v>39</v>
+      </c>
+      <c r="C283">
+        <v>25</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>2022</v>
+      </c>
+      <c r="B284" t="s">
+        <v>39</v>
+      </c>
+      <c r="C284">
+        <v>26</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>2022</v>
+      </c>
+      <c r="B285" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2022</v>
+      </c>
+      <c r="B286" t="s">
+        <v>40</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>2022</v>
+      </c>
+      <c r="B287" t="s">
+        <v>40</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>2022</v>
+      </c>
+      <c r="B288" t="s">
+        <v>40</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2022</v>
+      </c>
+      <c r="B289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>2022</v>
+      </c>
+      <c r="B290" t="s">
+        <v>40</v>
+      </c>
+      <c r="C290">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>2022</v>
+      </c>
+      <c r="B291" t="s">
+        <v>40</v>
+      </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>2022</v>
+      </c>
+      <c r="B292" t="s">
+        <v>40</v>
+      </c>
+      <c r="C292">
+        <v>8</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>2022</v>
+      </c>
+      <c r="B293" t="s">
+        <v>40</v>
+      </c>
+      <c r="C293">
+        <v>9</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>2022</v>
+      </c>
+      <c r="B294" t="s">
+        <v>40</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>2022</v>
+      </c>
+      <c r="B295" t="s">
+        <v>40</v>
+      </c>
+      <c r="C295">
+        <v>11</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2022</v>
+      </c>
+      <c r="B296" t="s">
+        <v>40</v>
+      </c>
+      <c r="C296">
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>2022</v>
+      </c>
+      <c r="B297" t="s">
+        <v>40</v>
+      </c>
+      <c r="C297">
+        <v>13</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2022</v>
+      </c>
+      <c r="B298" t="s">
+        <v>41</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>2022</v>
+      </c>
+      <c r="B299" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2022</v>
+      </c>
+      <c r="B300" t="s">
+        <v>42</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>2022</v>
+      </c>
+      <c r="B301" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>2022</v>
+      </c>
+      <c r="B302" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2022</v>
+      </c>
+      <c r="B303" t="s">
+        <v>42</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>2022</v>
+      </c>
+      <c r="B304" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>2022</v>
+      </c>
+      <c r="B305" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305">
+        <v>7</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>2022</v>
+      </c>
+      <c r="B306" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306">
+        <v>8</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>2022</v>
+      </c>
+      <c r="B307" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307">
+        <v>9</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>2022</v>
+      </c>
+      <c r="B308" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308">
+        <v>10</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>2022</v>
+      </c>
+      <c r="B309" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>2022</v>
+      </c>
+      <c r="B310" t="s">
+        <v>42</v>
+      </c>
+      <c r="C310">
+        <v>12</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>2022</v>
+      </c>
+      <c r="B311" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311">
+        <v>13</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>2022</v>
+      </c>
+      <c r="B312" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312">
+        <v>14</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>2022</v>
+      </c>
+      <c r="B313" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313">
+        <v>15</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>2022</v>
+      </c>
+      <c r="B314" t="s">
+        <v>43</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>2022</v>
+      </c>
+      <c r="B315" t="s">
+        <v>43</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>2022</v>
+      </c>
+      <c r="B316" t="s">
+        <v>43</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>2022</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>2022</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>2022</v>
+      </c>
+      <c r="B319" t="s">
+        <v>44</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>2022</v>
+      </c>
+      <c r="B320" t="s">
+        <v>44</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>2022</v>
+      </c>
+      <c r="B321" t="s">
+        <v>44</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>2022</v>
+      </c>
+      <c r="B322" t="s">
+        <v>44</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>2022</v>
+      </c>
+      <c r="B323" t="s">
+        <v>44</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>2022</v>
+      </c>
+      <c r="B324" t="s">
+        <v>44</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>2022</v>
+      </c>
+      <c r="B325" t="s">
+        <v>45</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>2022</v>
+      </c>
+      <c r="B326" t="s">
+        <v>45</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>2022</v>
+      </c>
+      <c r="B327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>2022</v>
+      </c>
+      <c r="B328" t="s">
+        <v>45</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>2022</v>
+      </c>
+      <c r="B329" t="s">
+        <v>45</v>
+      </c>
+      <c r="C329">
+        <v>5</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>2022</v>
+      </c>
+      <c r="B330" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>2022</v>
+      </c>
+      <c r="B331" t="s">
+        <v>45</v>
+      </c>
+      <c r="C331">
+        <v>7</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>2022</v>
+      </c>
+      <c r="B332" t="s">
+        <v>45</v>
+      </c>
+      <c r="C332">
+        <v>8</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>2022</v>
+      </c>
+      <c r="B333" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333">
+        <v>9</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>2022</v>
+      </c>
+      <c r="B334" t="s">
+        <v>45</v>
+      </c>
+      <c r="C334">
+        <v>10</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>2022</v>
+      </c>
+      <c r="B335" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335">
+        <v>11</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2022</v>
+      </c>
+      <c r="B336" t="s">
+        <v>45</v>
+      </c>
+      <c r="C336">
+        <v>12</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>2022</v>
+      </c>
+      <c r="B337" t="s">
+        <v>45</v>
+      </c>
+      <c r="C337">
+        <v>13</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>2022</v>
+      </c>
+      <c r="B338" t="s">
+        <v>45</v>
+      </c>
+      <c r="C338">
+        <v>14</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>2022</v>
+      </c>
+      <c r="B339" t="s">
+        <v>45</v>
+      </c>
+      <c r="C339">
+        <v>15</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>2022</v>
+      </c>
+      <c r="B340" t="s">
+        <v>45</v>
+      </c>
+      <c r="C340">
+        <v>16</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>2022</v>
+      </c>
+      <c r="B341" t="s">
+        <v>45</v>
+      </c>
+      <c r="C341">
+        <v>17</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>2022</v>
+      </c>
+      <c r="B342" t="s">
+        <v>46</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>2022</v>
+      </c>
+      <c r="B343" t="s">
+        <v>46</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>2022</v>
+      </c>
+      <c r="B344" t="s">
+        <v>47</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>2022</v>
+      </c>
+      <c r="B345" t="s">
+        <v>47</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2022</v>
+      </c>
+      <c r="B346" t="s">
+        <v>47</v>
+      </c>
+      <c r="C346">
+        <v>3</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>2022</v>
+      </c>
+      <c r="B347" t="s">
+        <v>47</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>2022</v>
+      </c>
+      <c r="B348" t="s">
+        <v>47</v>
+      </c>
+      <c r="C348">
+        <v>5</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>2022</v>
+      </c>
+      <c r="B349" t="s">
+        <v>47</v>
+      </c>
+      <c r="C349">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>2022</v>
+      </c>
+      <c r="B350" t="s">
+        <v>47</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>2022</v>
+      </c>
+      <c r="B351" t="s">
+        <v>48</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>2022</v>
+      </c>
+      <c r="B352" t="s">
+        <v>49</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2022</v>
+      </c>
+      <c r="B353" t="s">
+        <v>49</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>2022</v>
+      </c>
+      <c r="B354" t="s">
+        <v>49</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>2022</v>
+      </c>
+      <c r="B355" t="s">
+        <v>49</v>
+      </c>
+      <c r="C355">
+        <v>4</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>2022</v>
+      </c>
+      <c r="B356" t="s">
+        <v>49</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>2022</v>
+      </c>
+      <c r="B357" t="s">
+        <v>49</v>
+      </c>
+      <c r="C357">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>2022</v>
+      </c>
+      <c r="B358" t="s">
+        <v>49</v>
+      </c>
+      <c r="C358">
+        <v>7</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>2022</v>
+      </c>
+      <c r="B359" t="s">
+        <v>49</v>
+      </c>
+      <c r="C359">
+        <v>8</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>2022</v>
+      </c>
+      <c r="B360" t="s">
+        <v>49</v>
+      </c>
+      <c r="C360">
+        <v>9</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>2022</v>
+      </c>
+      <c r="B361" t="s">
+        <v>50</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>2022</v>
+      </c>
+      <c r="B362" t="s">
+        <v>50</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>2022</v>
+      </c>
+      <c r="B363" t="s">
+        <v>50</v>
+      </c>
+      <c r="C363">
+        <v>3</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>2022</v>
+      </c>
+      <c r="B364" t="s">
+        <v>50</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>2022</v>
+      </c>
+      <c r="B365" t="s">
+        <v>50</v>
+      </c>
+      <c r="C365">
+        <v>5</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>2022</v>
+      </c>
+      <c r="B366" t="s">
+        <v>50</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>2022</v>
+      </c>
+      <c r="B367" t="s">
+        <v>50</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>2022</v>
+      </c>
+      <c r="B368" t="s">
+        <v>50</v>
+      </c>
+      <c r="C368">
+        <v>8</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>1</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>2022</v>
+      </c>
+      <c r="B369" t="s">
+        <v>50</v>
+      </c>
+      <c r="C369">
+        <v>9</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>2022</v>
+      </c>
+      <c r="B370" t="s">
+        <v>50</v>
+      </c>
+      <c r="C370">
+        <v>10</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>2022</v>
+      </c>
+      <c r="B371" t="s">
+        <v>50</v>
+      </c>
+      <c r="C371">
+        <v>11</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>2022</v>
+      </c>
+      <c r="B372" t="s">
+        <v>50</v>
+      </c>
+      <c r="C372">
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>2022</v>
+      </c>
+      <c r="B373" t="s">
+        <v>50</v>
+      </c>
+      <c r="C373">
+        <v>13</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>2022</v>
+      </c>
+      <c r="B374" t="s">
+        <v>50</v>
+      </c>
+      <c r="C374">
+        <v>14</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>2022</v>
+      </c>
+      <c r="B375" t="s">
+        <v>50</v>
+      </c>
+      <c r="C375">
+        <v>15</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>2022</v>
+      </c>
+      <c r="B376" t="s">
+        <v>50</v>
+      </c>
+      <c r="C376">
+        <v>16</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>2022</v>
+      </c>
+      <c r="B377" t="s">
+        <v>50</v>
+      </c>
+      <c r="C377">
+        <v>17</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>2022</v>
+      </c>
+      <c r="B378" t="s">
+        <v>50</v>
+      </c>
+      <c r="C378">
+        <v>18</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>1</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>2022</v>
+      </c>
+      <c r="B379" t="s">
+        <v>50</v>
+      </c>
+      <c r="C379">
+        <v>19</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>2022</v>
+      </c>
+      <c r="B380" t="s">
+        <v>50</v>
+      </c>
+      <c r="C380">
+        <v>20</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>2022</v>
+      </c>
+      <c r="B381" t="s">
+        <v>50</v>
+      </c>
+      <c r="C381">
+        <v>21</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>2022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>50</v>
+      </c>
+      <c r="C382">
+        <v>22</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>2022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>50</v>
+      </c>
+      <c r="C383">
+        <v>23</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>2022</v>
+      </c>
+      <c r="B384" t="s">
+        <v>50</v>
+      </c>
+      <c r="C384">
+        <v>24</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>2022</v>
+      </c>
+      <c r="B385" t="s">
+        <v>50</v>
+      </c>
+      <c r="C385">
+        <v>25</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>2022</v>
+      </c>
+      <c r="B386" t="s">
+        <v>50</v>
+      </c>
+      <c r="C386">
+        <v>26</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>2022</v>
+      </c>
+      <c r="B387" t="s">
+        <v>50</v>
+      </c>
+      <c r="C387">
+        <v>27</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>2022</v>
+      </c>
+      <c r="B388" t="s">
+        <v>50</v>
+      </c>
+      <c r="C388">
+        <v>28</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>2022</v>
+      </c>
+      <c r="B389" t="s">
+        <v>50</v>
+      </c>
+      <c r="C389">
+        <v>29</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>2022</v>
+      </c>
+      <c r="B390" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390">
+        <v>30</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>2022</v>
+      </c>
+      <c r="B391" t="s">
+        <v>50</v>
+      </c>
+      <c r="C391">
+        <v>31</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>2022</v>
+      </c>
+      <c r="B392" t="s">
+        <v>50</v>
+      </c>
+      <c r="C392">
+        <v>32</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>2022</v>
+      </c>
+      <c r="B393" t="s">
+        <v>50</v>
+      </c>
+      <c r="C393">
+        <v>33</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>2022</v>
+      </c>
+      <c r="B394" t="s">
+        <v>50</v>
+      </c>
+      <c r="C394">
+        <v>34</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>2022</v>
+      </c>
+      <c r="B395" t="s">
+        <v>50</v>
+      </c>
+      <c r="C395">
+        <v>35</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>2022</v>
+      </c>
+      <c r="B396" t="s">
+        <v>50</v>
+      </c>
+      <c r="C396">
+        <v>36</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>2022</v>
+      </c>
+      <c r="B397" t="s">
+        <v>50</v>
+      </c>
+      <c r="C397">
+        <v>37</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>2022</v>
+      </c>
+      <c r="B398" t="s">
+        <v>50</v>
+      </c>
+      <c r="C398">
+        <v>38</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>2022</v>
+      </c>
+      <c r="B399" t="s">
+        <v>51</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>2022</v>
+      </c>
+      <c r="B400" t="s">
+        <v>51</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>2022</v>
+      </c>
+      <c r="B401" t="s">
+        <v>51</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>2022</v>
+      </c>
+      <c r="B402" t="s">
+        <v>51</v>
+      </c>
+      <c r="C402">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>2022</v>
+      </c>
+      <c r="B403" t="s">
+        <v>52</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>2022</v>
+      </c>
+      <c r="B404" t="s">
+        <v>53</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>2022</v>
+      </c>
+      <c r="B405" t="s">
+        <v>53</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>2022</v>
+      </c>
+      <c r="B406" t="s">
+        <v>53</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>2022</v>
+      </c>
+      <c r="B407" t="s">
+        <v>53</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>2022</v>
+      </c>
+      <c r="B408" t="s">
+        <v>53</v>
+      </c>
+      <c r="C408">
+        <v>5</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>2022</v>
+      </c>
+      <c r="B409" t="s">
+        <v>53</v>
+      </c>
+      <c r="C409">
+        <v>6</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>2022</v>
+      </c>
+      <c r="B410" t="s">
+        <v>53</v>
+      </c>
+      <c r="C410">
+        <v>7</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>2022</v>
+      </c>
+      <c r="B411" t="s">
+        <v>53</v>
+      </c>
+      <c r="C411">
+        <v>8</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>2022</v>
+      </c>
+      <c r="B412" t="s">
+        <v>53</v>
+      </c>
+      <c r="C412">
+        <v>9</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>2022</v>
+      </c>
+      <c r="B413" t="s">
+        <v>53</v>
+      </c>
+      <c r="C413">
+        <v>10</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>2022</v>
+      </c>
+      <c r="B414" t="s">
+        <v>53</v>
+      </c>
+      <c r="C414">
+        <v>11</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>2022</v>
+      </c>
+      <c r="B415" t="s">
+        <v>54</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>2022</v>
+      </c>
+      <c r="B416" t="s">
+        <v>54</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>2022</v>
+      </c>
+      <c r="B417" t="s">
+        <v>54</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>2022</v>
+      </c>
+      <c r="B418" t="s">
+        <v>54</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>2022</v>
+      </c>
+      <c r="B419" t="s">
+        <v>54</v>
+      </c>
+      <c r="C419">
+        <v>5</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>2022</v>
+      </c>
+      <c r="B420" t="s">
+        <v>54</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>2022</v>
+      </c>
+      <c r="B421" t="s">
+        <v>54</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>2022</v>
+      </c>
+      <c r="B422" t="s">
+        <v>54</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>2022</v>
+      </c>
+      <c r="B423" t="s">
+        <v>54</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>2022</v>
+      </c>
+      <c r="B424" t="s">
+        <v>54</v>
+      </c>
+      <c r="C424">
+        <v>10</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>2022</v>
+      </c>
+      <c r="B425" t="s">
+        <v>55</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>2022</v>
+      </c>
+      <c r="B426" t="s">
+        <v>55</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>2022</v>
+      </c>
+      <c r="B427" t="s">
+        <v>56</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>2022</v>
+      </c>
+      <c r="B428" t="s">
+        <v>56</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>2022</v>
+      </c>
+      <c r="B429" t="s">
+        <v>56</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>2022</v>
+      </c>
+      <c r="B430" t="s">
+        <v>56</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>2022</v>
+      </c>
+      <c r="B431" t="s">
+        <v>56</v>
+      </c>
+      <c r="C431">
+        <v>5</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>2022</v>
+      </c>
+      <c r="B432" t="s">
+        <v>56</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>2022</v>
+      </c>
+      <c r="B433" t="s">
+        <v>56</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>2022</v>
+      </c>
+      <c r="B434" t="s">
+        <v>56</v>
+      </c>
+      <c r="C434">
+        <v>8</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>2022</v>
+      </c>
+      <c r="B435" t="s">
+        <v>57</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/2022 Candidates File/party_ind_data.xlsx
+++ b/Data/2022 Candidates File/party_ind_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onest\OneDrive\Desktop\2022 Election Model\Data\2022 Candidates File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF62C8A-944A-4DEB-94B1-39726E1C698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{335CE5A9-988E-4069-BAA8-D1420BB4BFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="4950" windowWidth="16920" windowHeight="10450" xr2:uid="{EBDE48A5-2C6B-4379-BD39-1564C1B4D6E6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="party_ind_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="58">
   <si>
     <t>year</t>
   </si>
@@ -212,8 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,16 +208,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,15 +525,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,13 +1033,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84464BEB-B617-4CE3-ACE5-0300B2F036F6}">
-  <dimension ref="A1:H435"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A436" sqref="A436"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -8294,16 +8767,16 @@
         <v>2022</v>
       </c>
       <c r="B298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D298">
         <v>1</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -8312,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
@@ -8320,7 +8793,7 @@
         <v>2022</v>
       </c>
       <c r="B299" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -8329,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -8338,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
@@ -8349,7 +8822,7 @@
         <v>42</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -8375,7 +8848,7 @@
         <v>42</v>
       </c>
       <c r="C301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -8401,7 +8874,7 @@
         <v>42</v>
       </c>
       <c r="C302">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -8427,7 +8900,7 @@
         <v>42</v>
       </c>
       <c r="C303">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -8453,7 +8926,7 @@
         <v>42</v>
       </c>
       <c r="C304">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -8479,7 +8952,7 @@
         <v>42</v>
       </c>
       <c r="C305">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -8505,7 +8978,7 @@
         <v>42</v>
       </c>
       <c r="C306">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -8531,7 +9004,7 @@
         <v>42</v>
       </c>
       <c r="C307">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -8557,7 +9030,7 @@
         <v>42</v>
       </c>
       <c r="C308">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -8583,7 +9056,7 @@
         <v>42</v>
       </c>
       <c r="C309">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -8609,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="C310">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -8635,7 +9108,7 @@
         <v>42</v>
       </c>
       <c r="C311">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -8661,7 +9134,7 @@
         <v>42</v>
       </c>
       <c r="C312">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -8687,7 +9160,7 @@
         <v>42</v>
       </c>
       <c r="C313">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -8710,10 +9183,10 @@
         <v>2022</v>
       </c>
       <c r="B314" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -8728,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
@@ -8739,7 +9212,7 @@
         <v>43</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -8765,7 +9238,7 @@
         <v>43</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -8780,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
@@ -8791,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -8817,7 +9290,7 @@
         <v>43</v>
       </c>
       <c r="C318">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -8832,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.35">
@@ -8840,10 +9313,10 @@
         <v>2022</v>
       </c>
       <c r="B319" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -8858,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.35">
@@ -8869,7 +9342,7 @@
         <v>44</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -8895,7 +9368,7 @@
         <v>44</v>
       </c>
       <c r="C321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -8910,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
@@ -8921,7 +9394,7 @@
         <v>44</v>
       </c>
       <c r="C322">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -8930,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -8947,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="C323">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -8956,13 +9429,13 @@
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323">
         <v>0</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.35">
@@ -8973,7 +9446,7 @@
         <v>44</v>
       </c>
       <c r="C324">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -8996,10 +9469,10 @@
         <v>2022</v>
       </c>
       <c r="B325" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -9025,7 +9498,7 @@
         <v>45</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -9051,10 +9524,10 @@
         <v>45</v>
       </c>
       <c r="C327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -9077,10 +9550,10 @@
         <v>45</v>
       </c>
       <c r="C328">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -9103,7 +9576,7 @@
         <v>45</v>
       </c>
       <c r="C329">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -9129,7 +9602,7 @@
         <v>45</v>
       </c>
       <c r="C330">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -9155,7 +9628,7 @@
         <v>45</v>
       </c>
       <c r="C331">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -9181,7 +9654,7 @@
         <v>45</v>
       </c>
       <c r="C332">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -9207,7 +9680,7 @@
         <v>45</v>
       </c>
       <c r="C333">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -9233,7 +9706,7 @@
         <v>45</v>
       </c>
       <c r="C334">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -9259,7 +9732,7 @@
         <v>45</v>
       </c>
       <c r="C335">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -9285,7 +9758,7 @@
         <v>45</v>
       </c>
       <c r="C336">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -9311,13 +9784,13 @@
         <v>45</v>
       </c>
       <c r="C337">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D337">
         <v>1</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9337,7 +9810,7 @@
         <v>45</v>
       </c>
       <c r="C338">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -9363,13 +9836,13 @@
         <v>45</v>
       </c>
       <c r="C339">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D339">
         <v>1</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9389,7 +9862,7 @@
         <v>45</v>
       </c>
       <c r="C340">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -9415,7 +9888,7 @@
         <v>45</v>
       </c>
       <c r="C341">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -9438,10 +9911,10 @@
         <v>2022</v>
       </c>
       <c r="B342" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -9467,7 +9940,7 @@
         <v>46</v>
       </c>
       <c r="C343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -9490,10 +9963,10 @@
         <v>2022</v>
       </c>
       <c r="B344" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -9519,7 +9992,7 @@
         <v>47</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -9545,13 +10018,13 @@
         <v>47</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346">
         <v>1</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9571,7 +10044,7 @@
         <v>47</v>
       </c>
       <c r="C347">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -9597,19 +10070,19 @@
         <v>47</v>
       </c>
       <c r="C348">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D348">
         <v>1</v>
       </c>
       <c r="E348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348">
         <v>0</v>
       </c>
       <c r="G348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -9623,7 +10096,7 @@
         <v>47</v>
       </c>
       <c r="C349">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -9635,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="G349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -9649,7 +10122,7 @@
         <v>47</v>
       </c>
       <c r="C350">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -9672,19 +10145,19 @@
         <v>2022</v>
       </c>
       <c r="B351" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D351">
         <v>1</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -9698,7 +10171,7 @@
         <v>2022</v>
       </c>
       <c r="B352" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -9707,16 +10180,16 @@
         <v>1</v>
       </c>
       <c r="E352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.35">
@@ -9727,7 +10200,7 @@
         <v>49</v>
       </c>
       <c r="C353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -9742,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.35">
@@ -9753,7 +10226,7 @@
         <v>49</v>
       </c>
       <c r="C354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -9768,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.35">
@@ -9779,7 +10252,7 @@
         <v>49</v>
       </c>
       <c r="C355">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -9805,7 +10278,7 @@
         <v>49</v>
       </c>
       <c r="C356">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -9831,7 +10304,7 @@
         <v>49</v>
       </c>
       <c r="C357">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -9846,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.35">
@@ -9857,7 +10330,7 @@
         <v>49</v>
       </c>
       <c r="C358">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -9872,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
@@ -9883,7 +10356,7 @@
         <v>49</v>
       </c>
       <c r="C359">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -9909,7 +10382,7 @@
         <v>49</v>
       </c>
       <c r="C360">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -9932,10 +10405,10 @@
         <v>2022</v>
       </c>
       <c r="B361" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -9950,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
@@ -9961,7 +10434,7 @@
         <v>50</v>
       </c>
       <c r="C362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -9987,7 +10460,7 @@
         <v>50</v>
       </c>
       <c r="C363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -9996,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -10013,7 +10486,7 @@
         <v>50</v>
       </c>
       <c r="C364">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -10039,7 +10512,7 @@
         <v>50</v>
       </c>
       <c r="C365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -10065,16 +10538,16 @@
         <v>50</v>
       </c>
       <c r="C366">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D366">
         <v>1</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -10091,13 +10564,13 @@
         <v>50</v>
       </c>
       <c r="C367">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D367">
         <v>1</v>
       </c>
       <c r="E367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -10117,7 +10590,7 @@
         <v>50</v>
       </c>
       <c r="C368">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -10126,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="F368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -10143,7 +10616,7 @@
         <v>50</v>
       </c>
       <c r="C369">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -10152,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -10169,7 +10642,7 @@
         <v>50</v>
       </c>
       <c r="C370">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -10178,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="F370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -10195,16 +10668,16 @@
         <v>50</v>
       </c>
       <c r="C371">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D371">
         <v>1</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -10221,13 +10694,13 @@
         <v>50</v>
       </c>
       <c r="C372">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D372">
         <v>1</v>
       </c>
       <c r="E372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10247,7 +10720,7 @@
         <v>50</v>
       </c>
       <c r="C373">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -10273,7 +10746,7 @@
         <v>50</v>
       </c>
       <c r="C374">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -10299,7 +10772,7 @@
         <v>50</v>
       </c>
       <c r="C375">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -10308,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -10325,7 +10798,7 @@
         <v>50</v>
       </c>
       <c r="C376">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -10334,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -10351,7 +10824,7 @@
         <v>50</v>
       </c>
       <c r="C377">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -10377,7 +10850,7 @@
         <v>50</v>
       </c>
       <c r="C378">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -10386,13 +10859,13 @@
         <v>1</v>
       </c>
       <c r="F378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378">
         <v>0</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.35">
@@ -10403,16 +10876,16 @@
         <v>50</v>
       </c>
       <c r="C379">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D379">
         <v>1</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -10429,13 +10902,13 @@
         <v>50</v>
       </c>
       <c r="C380">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D380">
         <v>1</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10444,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
@@ -10455,7 +10928,7 @@
         <v>50</v>
       </c>
       <c r="C381">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -10481,7 +10954,7 @@
         <v>50</v>
       </c>
       <c r="C382">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -10490,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="F382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -10507,7 +10980,7 @@
         <v>50</v>
       </c>
       <c r="C383">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -10516,13 +10989,13 @@
         <v>1</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G383">
         <v>0</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.35">
@@ -10533,7 +11006,7 @@
         <v>50</v>
       </c>
       <c r="C384">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -10548,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.35">
@@ -10559,13 +11032,13 @@
         <v>50</v>
       </c>
       <c r="C385">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D385">
         <v>1</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -10585,7 +11058,7 @@
         <v>50</v>
       </c>
       <c r="C386">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -10594,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386">
         <v>0</v>
@@ -10611,16 +11084,16 @@
         <v>50</v>
       </c>
       <c r="C387">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D387">
         <v>1</v>
       </c>
       <c r="E387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -10637,7 +11110,7 @@
         <v>50</v>
       </c>
       <c r="C388">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -10663,7 +11136,7 @@
         <v>50</v>
       </c>
       <c r="C389">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -10689,7 +11162,7 @@
         <v>50</v>
       </c>
       <c r="C390">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -10698,13 +11171,13 @@
         <v>1</v>
       </c>
       <c r="F390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390">
         <v>0</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
@@ -10715,22 +11188,22 @@
         <v>50</v>
       </c>
       <c r="C391">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D391">
         <v>1</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391">
         <v>0</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
@@ -10741,13 +11214,13 @@
         <v>50</v>
       </c>
       <c r="C392">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D392">
         <v>1</v>
       </c>
       <c r="E392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10767,7 +11240,7 @@
         <v>50</v>
       </c>
       <c r="C393">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -10776,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="F393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -10793,7 +11266,7 @@
         <v>50</v>
       </c>
       <c r="C394">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -10802,13 +11275,13 @@
         <v>1</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G394">
         <v>0</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.35">
@@ -10819,7 +11292,7 @@
         <v>50</v>
       </c>
       <c r="C395">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -10834,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.35">
@@ -10845,7 +11318,7 @@
         <v>50</v>
       </c>
       <c r="C396">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -10871,7 +11344,7 @@
         <v>50</v>
       </c>
       <c r="C397">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -10880,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -10897,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="C398">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -10906,13 +11379,13 @@
         <v>1</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G398">
         <v>0</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.35">
@@ -10920,10 +11393,10 @@
         <v>2022</v>
       </c>
       <c r="B399" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -10938,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.35">
@@ -10949,7 +11422,7 @@
         <v>51</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -10975,7 +11448,7 @@
         <v>51</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -10984,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="F401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -11001,7 +11474,7 @@
         <v>51</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -11010,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -11024,10 +11497,10 @@
         <v>2022</v>
       </c>
       <c r="B403" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -11036,13 +11509,13 @@
         <v>1</v>
       </c>
       <c r="F403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403">
         <v>0</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
@@ -11050,7 +11523,7 @@
         <v>2022</v>
       </c>
       <c r="B404" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -11062,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -11079,7 +11552,7 @@
         <v>53</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -11094,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.35">
@@ -11105,7 +11578,7 @@
         <v>53</v>
       </c>
       <c r="C406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -11131,7 +11604,7 @@
         <v>53</v>
       </c>
       <c r="C407">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -11157,7 +11630,7 @@
         <v>53</v>
       </c>
       <c r="C408">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -11183,7 +11656,7 @@
         <v>53</v>
       </c>
       <c r="C409">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -11209,7 +11682,7 @@
         <v>53</v>
       </c>
       <c r="C410">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -11235,7 +11708,7 @@
         <v>53</v>
       </c>
       <c r="C411">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -11250,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.35">
@@ -11261,7 +11734,7 @@
         <v>53</v>
       </c>
       <c r="C412">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -11276,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.35">
@@ -11287,7 +11760,7 @@
         <v>53</v>
       </c>
       <c r="C413">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -11313,7 +11786,7 @@
         <v>53</v>
       </c>
       <c r="C414">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -11336,10 +11809,10 @@
         <v>2022</v>
       </c>
       <c r="B415" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -11365,7 +11838,7 @@
         <v>54</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -11391,7 +11864,7 @@
         <v>54</v>
       </c>
       <c r="C417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -11417,7 +11890,7 @@
         <v>54</v>
       </c>
       <c r="C418">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -11443,7 +11916,7 @@
         <v>54</v>
       </c>
       <c r="C419">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -11469,7 +11942,7 @@
         <v>54</v>
       </c>
       <c r="C420">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -11495,7 +11968,7 @@
         <v>54</v>
       </c>
       <c r="C421">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -11521,7 +11994,7 @@
         <v>54</v>
       </c>
       <c r="C422">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -11547,7 +12020,7 @@
         <v>54</v>
       </c>
       <c r="C423">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -11573,7 +12046,7 @@
         <v>54</v>
       </c>
       <c r="C424">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -11596,10 +12069,10 @@
         <v>2022</v>
       </c>
       <c r="B425" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -11614,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.35">
@@ -11625,7 +12098,7 @@
         <v>55</v>
       </c>
       <c r="C426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -11640,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.35">
@@ -11648,10 +12121,10 @@
         <v>2022</v>
       </c>
       <c r="B427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -11677,7 +12150,7 @@
         <v>56</v>
       </c>
       <c r="C428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -11692,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.35">
@@ -11703,7 +12176,7 @@
         <v>56</v>
       </c>
       <c r="C429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -11718,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.35">
@@ -11729,7 +12202,7 @@
         <v>56</v>
       </c>
       <c r="C430">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -11744,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.35">
@@ -11755,7 +12228,7 @@
         <v>56</v>
       </c>
       <c r="C431">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -11770,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.35">
@@ -11781,13 +12254,13 @@
         <v>56</v>
       </c>
       <c r="C432">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D432">
         <v>1</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11807,13 +12280,13 @@
         <v>56</v>
       </c>
       <c r="C433">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11833,22 +12306,22 @@
         <v>56</v>
       </c>
       <c r="C434">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D434">
         <v>1</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G434">
         <v>0</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.35">
@@ -11856,24 +12329,50 @@
         <v>2022</v>
       </c>
       <c r="B435" t="s">
+        <v>56</v>
+      </c>
+      <c r="C435">
+        <v>8</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>2022</v>
+      </c>
+      <c r="B436" t="s">
         <v>57</v>
       </c>
-      <c r="C435">
-        <v>1</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
-      </c>
-      <c r="E435">
-        <v>1</v>
-      </c>
-      <c r="F435">
-        <v>1</v>
-      </c>
-      <c r="G435">
-        <v>0</v>
-      </c>
-      <c r="H435">
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
         <v>0</v>
       </c>
     </row>
